--- a/data/Producao_cultural_Doutorandos.xlsx
+++ b/data/Producao_cultural_Doutorandos.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,21 +496,6 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>GUERI, C. ;FONTENELLE, D. C.; SOUZA, G. N. ; RODRIGUES, J. R. S. ; SOARES, L. C. . Irôko: revisitar o ontem através da Semana da Consciência Negra. 2023. Fotografia.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Luciana Campos Batista</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>I Seminário Mundos das Artes, dos Museus e do Patrimônio. 2021. (Seminário).</t>
         </is>
       </c>
     </row>
@@ -633,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +646,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -669,286 +654,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>32º Simpósio Nacional de História ? ANPUH Nacional: Democracia e direitos humanos: Desafios para uma história profissional,.?Prove e depois me dirá se gostou do meu mugunzá?: as atrizes do teatro ligeiro no Rio de Janeiro de finais do século XIX e início do século XX.
-						2023. (Simpósio).</t>
+          <t>GAMBARRA, Robinson ;ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Espetáculo Volver. 2023. Performática.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
+          <t>Rafael Vieira da Cal</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jornada de Estudos Históricos Professor Manoel Salgado ? Edição 2023.Alcazar Lyrique: transformações na vida noturna e teatral do Rio de Janeiro de finais do século XIX.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>X SIMPÓSIO NACIONAL DE HISTÓRIA CULTURAL - MODERNISMOS - OS SENTIDOS DA COMEMORAÇÃO: MEMÓRIA, CULTURA, HISTORIOGRAFIA.A POLIFONIA DAS PEÇAS DO SÉCULO XIX NO BRASIL ATRAVÉS DASPERSONAGENS-TIPO FEMININAS.
-						2022. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>31° Simpósio Nacional de História ? História, Verdade e Tecnologia.Benvinda a mulata: raça e sexualidade na Capital Federal de Artur Azevedo (1897).
-						2021. (Simpósio).</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Julia Soares Leite Lanzarini de Carvalho</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Colóquio Teatro e Sociedade.Benvinda a mulata: os sentidos da mestiçagem na ?Capital Federal? de Artur Azevedo.
-						2021. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Naiara Müssnich Rotta Gomes de Assunção</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GAMBARRA, Robinson ;ASSUNÇÃO, NAIARA MÜSSNICH ROTTA GOMES DE. Espetáculo Volver. 2023. Performática.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>CAL, Rafael. Às margens. 2022. Teatral.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>I Encontro de Pós-Graduação em História - UFES.Coordenação do Simpósio Temático: Ficção, história e literatura: narrativas, limites e tensões.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>I Jornadas de investigación - Maestría en Literatura Argentina (UNR). 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Semana Acadêmica de História I UEMG - Carangola : Histórias, Afetos e Resistências?.Coordenação do Simpósio Temático: ?Entre afetos e escolhas: documento, narrativas, ensino e teoria da História?. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>VI Coloquio Internacional Literatura y Vida.Entre el espíritu y el registro correcto: documento, historia y ficción en "El espíritu de mis padres sigue subiendo en la lluvia?. 2023. (Outra).</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>XI Encontro de Pesquisa em História da UFMG.História e ficção em "76" e "Los topos", de Félix Bruzzone.
-						2023. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>XVIII Congresso Internacional da ABRALIC: A LITERATURA COMPARADA E A INVENÇÃO DE UM MUNDO COMUM. Arquivo, documento e ficção em "76" e "Los topos", de Félix Bruzzone. 2023. (Congresso).</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>20º Encontro de História da ANPUH-Rio. "1822/2022: 200 anos de História e Historiografia".
-						2022. (Encontro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>XI Seminário Brasileiro de Teoria e História da Historiografia."História e ficção em "O espírito dos meus pais continua a subir na chuva". 2022. (Seminário).</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CAL, Rafael. Simpósio Temárico 4 - Ficção, história e literatura: narrativas, limites e tensões. 2023. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CAL, Rafael. Documento, ficção e arquivo em 'O espírito dos meus pais continua a subir na chuva'. 2021. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>CAL, Rafael. 'História e ficção: documento e arquivo em 'K.: Relato e de uma busca' e 'O espírito dos meus pais continua a subir na chuva'. 2022. (Apresentação de Trabalho/Comunicação).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Rafael Vieira da Cal</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>CAL, Rafael. Formas breves. 2022; Tema:
-						História e literatura. (Blog).</t>
         </is>
       </c>
     </row>
